--- a/학생정보.xlsx
+++ b/학생정보.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A704318-3107-4FBB-AD35-C0820CB8D414}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB930C13-2124-4E98-A46A-0A978A0CD48B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>김코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,10 @@
   </si>
   <si>
     <t>일본 이바라키현 츠쿠바시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -366,12 +370,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -652,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,7 +699,7 @@
     <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>20160001</v>
       </c>
@@ -679,7 +713,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20160002</v>
       </c>
@@ -692,8 +726,15 @@
       <c r="D2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2">
+        <f>COUNTA(B1:B100000)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20160003</v>
       </c>
@@ -707,7 +748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20160004</v>
       </c>
@@ -721,7 +762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20160005</v>
       </c>
@@ -735,7 +776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20160006</v>
       </c>
@@ -749,7 +790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20160007</v>
       </c>
@@ -763,7 +804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20160008</v>
       </c>
@@ -777,7 +818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20160009</v>
       </c>
@@ -791,7 +832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20160010</v>
       </c>
@@ -805,7 +846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20160011</v>
       </c>
@@ -819,7 +860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20160012</v>
       </c>
@@ -833,7 +874,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20160013</v>
       </c>
@@ -847,7 +888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20160014</v>
       </c>
@@ -861,7 +902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20160015</v>
       </c>
@@ -875,7 +916,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20160016</v>
       </c>

--- a/학생정보.xlsx
+++ b/학생정보.xlsx
@@ -1,336 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB930C13-2124-4E98-A46A-0A978A0CD48B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이호영-PC\Desktop\PIMS_201601159_이호영\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B0A5A-4EAF-418D-988F-D67F69FF3A9B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$B$1:$B$30</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>김코딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>미국 캘리포니아 실리콘밸리</t>
   </si>
   <si>
     <t>나천재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의인재개발학과</t>
+  </si>
+  <si>
+    <t>화성 올림포스화산 중턱</t>
+  </si>
+  <si>
+    <t>학생 수</t>
   </si>
   <si>
     <t>이호영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>인천광역시 연수구 송도동 인천대학교 제 2기숙사</t>
   </si>
   <si>
     <t>공돌이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계공학과</t>
+  </si>
+  <si>
+    <t>서울특별시 강남구 삼성동</t>
   </si>
   <si>
     <t>나한국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정치외교학과</t>
+  </si>
+  <si>
+    <t>서울특별시 영등포구 여의도</t>
   </si>
   <si>
     <t>황회장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영학과</t>
   </si>
   <si>
     <t>나노벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일어일문학과</t>
+  </si>
+  <si>
+    <t>일본 아키하바라</t>
   </si>
   <si>
     <t>왕해적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해양학과</t>
+  </si>
+  <si>
+    <t>마다가스카르 안타나나리보</t>
   </si>
   <si>
     <t>박도둑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세무회계학과</t>
+  </si>
+  <si>
+    <t>아일랜드 더블린</t>
   </si>
   <si>
     <t>나잘나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패션산업학과</t>
+  </si>
+  <si>
+    <t>프랑스 파리</t>
   </si>
   <si>
     <t>김선동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신문방송학과</t>
+  </si>
+  <si>
+    <t>독일 베를린</t>
   </si>
   <si>
     <t>우사인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육학부</t>
+  </si>
+  <si>
+    <t>자메이카 킹스턴</t>
   </si>
   <si>
     <t>이기영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명공학부</t>
+  </si>
+  <si>
+    <t>폴란드 오시비엥침</t>
   </si>
   <si>
     <t>고래핀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재공학과</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 안암동</t>
   </si>
   <si>
     <t>맥스웰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국 캠브릿지</t>
   </si>
   <si>
     <t>플랑크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학과</t>
+  </si>
+  <si>
+    <t>독일 킬</t>
   </si>
   <si>
     <t>노이만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학과</t>
+  </si>
+  <si>
+    <t>미국 베데스다</t>
   </si>
   <si>
     <t>아인슈타인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 뉴저지</t>
   </si>
   <si>
     <t>보어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>덴마크 코펜하겐</t>
   </si>
   <si>
     <t>러더포드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>퀴리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴란드 바르샤바</t>
   </si>
   <si>
     <t>갈릴레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈리아 피사</t>
   </si>
   <si>
     <t>테슬라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 뉴욕</t>
+  </si>
+  <si>
+    <t>노벨</t>
+  </si>
+  <si>
+    <t>사회복지학과</t>
+  </si>
+  <si>
+    <t>스웨덴 스톡홀름</t>
   </si>
   <si>
     <t>페러데이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기공하과</t>
+  </si>
+  <si>
+    <t>영국 런던</t>
   </si>
   <si>
     <t>뉴턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>영국 런던 켄싱턴</t>
   </si>
   <si>
     <t>파스칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>윤동주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구</t>
   </si>
   <si>
     <t>튜링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다내꺼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계공학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정치외교학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일어일문학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해양학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세무회계학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터공학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창의인재개발학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자공학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패션산업학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신문방송학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체육학부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명공학부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신소재공학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회복지학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전기공하과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국어국문학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천광역시 연수구 송도동 인천대학교 제 2기숙사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미국 캘리포니아 실리콘밸리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성 올림포스화산 중턱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 강남구 삼성동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 영등포구 여의도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본 아키하바라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마다가스카르 안타나나리보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아일랜드 더블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랑스 파리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독일 베를린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자메이카 킹스턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴란드 오시비엥침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시 성북구 안암동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영국 캠브릿지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독일 킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미국 베데스다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미국 뉴저지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덴마크 코펜하겐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴란드 바르샤바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이탈리아 피사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미국 뉴욕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스웨덴 스톡홀름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영국 런던</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영국 런던 켄싱턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 해운대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일본 이바라키현 츠쿠바시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생 수</t>
+  </si>
+  <si>
+    <t>xlsxwriter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,7 +628,7 @@
     <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>20160001</v>
       </c>
@@ -707,30 +636,30 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20160002</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <f>COUNTA(B1:B100000)</f>
+        <f>COUNTA(B:B)</f>
         <v>30</v>
       </c>
     </row>
@@ -739,13 +668,13 @@
         <v>20160003</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -753,13 +682,13 @@
         <v>20160004</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,13 +696,13 @@
         <v>20160005</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -781,13 +710,13 @@
         <v>20160006</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,13 +724,13 @@
         <v>20160007</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -809,13 +738,13 @@
         <v>20160008</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -823,13 +752,13 @@
         <v>20160009</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -837,13 +766,13 @@
         <v>20160010</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -851,13 +780,13 @@
         <v>20160011</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,13 +794,13 @@
         <v>20160012</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -879,13 +808,13 @@
         <v>20160013</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -893,13 +822,13 @@
         <v>20160014</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -907,13 +836,13 @@
         <v>20160015</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -921,209 +850,212 @@
         <v>20160016</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20160017</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20160018</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20160019</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20160020</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20160021</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20160022</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20160023</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20160024</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20160025</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20160026</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20160027</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20160028</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20160029</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20160030</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/학생정보.xlsx
+++ b/학생정보.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이호영-PC\Desktop\PIMS_201601159_이호영\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B0A5A-4EAF-418D-988F-D67F69FF3A9B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E01D5-E15A-4F14-8882-6CE8E48EEC8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="학생정보" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test!$B$1:$B$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">학생정보!$B$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>김코딩</t>
   </si>
@@ -43,9 +43,6 @@
     <t>화성 올림포스화산 중턱</t>
   </si>
   <si>
-    <t>학생 수</t>
-  </si>
-  <si>
     <t>이호영</t>
   </si>
   <si>
@@ -257,10 +254,6 @@
   </si>
   <si>
     <t>일본 이바라키현 츠쿠바시</t>
-  </si>
-  <si>
-    <t>xlsxwriter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -291,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -299,42 +292,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -615,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,7 +591,7 @@
     <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>20160001</v>
       </c>
@@ -642,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20160002</v>
       </c>
@@ -655,407 +618,397 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <f>COUNTA(B:B)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20160003</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20160004</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20160005</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20160006</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20160007</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20160008</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20160009</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20160010</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20160011</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20160012</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20160013</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20160014</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20160015</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20160016</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20160017</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20160018</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20160019</v>
       </c>
       <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20160020</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20160021</v>
       </c>
       <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20160022</v>
       </c>
       <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20160023</v>
       </c>
       <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20160024</v>
       </c>
       <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20160025</v>
       </c>
       <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20160026</v>
       </c>
       <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20160027</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20160028</v>
       </c>
       <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
         <v>72</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20160029</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20160030</v>
       </c>
       <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/학생정보.xlsx
+++ b/학생정보.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이호영-PC\Desktop\PIMS_201601159_이호영\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E01D5-E15A-4F14-8882-6CE8E48EEC8C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7569571-14CF-460C-AEFA-9D88F34A9612}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="학생정보" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">학생정보!$B$1:$B$30</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>김코딩</t>
   </si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>화성 올림포스화산 중턱</t>
+  </si>
+  <si>
+    <t>학생 수</t>
   </si>
   <si>
     <t>이호영</t>
@@ -284,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,12 +292,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -578,9 +608,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -591,7 +621,7 @@
     <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>20160001</v>
       </c>
@@ -605,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20160002</v>
       </c>
@@ -618,201 +648,208 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <f>COUNTA(B1:B100000)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20160003</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20160004</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20160005</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20160006</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20160007</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20160008</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20160009</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20160010</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20160011</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20160012</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20160013</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20160014</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20160015</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20160016</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,13 +857,13 @@
         <v>20160017</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,13 +871,13 @@
         <v>20160018</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,13 +885,13 @@
         <v>20160019</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,13 +899,13 @@
         <v>20160020</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,13 +913,13 @@
         <v>20160021</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,13 +927,13 @@
         <v>20160022</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,13 +941,13 @@
         <v>20160023</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,13 +955,13 @@
         <v>20160024</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,13 +969,13 @@
         <v>20160025</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -946,13 +983,13 @@
         <v>20160026</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,13 +997,13 @@
         <v>20160027</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,13 +1011,13 @@
         <v>20160028</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -988,13 +1025,13 @@
         <v>20160029</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,13 +1039,13 @@
         <v>20160030</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
